--- a/data/trans_camb/P4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>-7,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>22,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>19,96</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-5,91</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>21,03</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 7,84</t>
+          <t>-5,43; 6,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 3,17</t>
+          <t>-8,15; 3,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 5,12</t>
+          <t>-7,37; 5,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 19,02</t>
+          <t>-13,1; -1,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,16</t>
+          <t>15,95; 27,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 3,83</t>
+          <t>-4,26; 7,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,82</t>
+          <t>-7,76; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 18,52</t>
+          <t>-6,35; 3,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,49</t>
+          <t>-7,53; 1,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,06</t>
+          <t>-9,89; 0,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,94</t>
+          <t>14,03; 25,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 17,67</t>
+          <t>-2,84; 7,74</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,03; 3,42</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 2,1</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 2,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; -1,6</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 25,17</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 5,89</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-7,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>-23,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-1,95%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-6,06%</t>
+          <t>72,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-2,94%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-6,2%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-18,72%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,29%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 28,66</t>
+          <t>-16,47; 24,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 11,58</t>
+          <t>-23,91; 12,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 18,45</t>
+          <t>-21,93; 19,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,64; 67,69</t>
+          <t>-39,08; -5,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 10,4</t>
+          <t>59,16; 138,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 13,04</t>
+          <t>-9,07; 16,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 8,94</t>
+          <t>-22,39; 11,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,5; 62,12</t>
+          <t>-18,19; 12,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 11,63</t>
+          <t>-21,78; 6,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 7,08</t>
+          <t>-28,92; 3,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 6,44</t>
+          <t>44,32; 103,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 59,74</t>
+          <t>-5,88; 18,12</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; 11,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-16,97; 7,18</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 7,34</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-29,51; -5,31</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>60,58; 108,53</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 13,95</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6,21</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,49</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 6,04</t>
+          <t>-4,71; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 4,53</t>
+          <t>-6,53; 4,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 9,48</t>
+          <t>-2,57; 9,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 15,1</t>
+          <t>-2,25; 9,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 6,85</t>
+          <t>0,17; 17,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 7,86</t>
+          <t>-4,39; 15,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 7,41</t>
+          <t>-4,28; 6,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 7,33</t>
+          <t>-3,15; 7,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,71</t>
+          <t>-3,56; 7,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 4,85</t>
+          <t>-2,41; 8,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 6,8</t>
+          <t>-4,63; 13,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 8,75</t>
+          <t>-3,18; 15,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 4,94</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 4,46</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 7,1</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 7,0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 12,44</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 13,01</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>-2,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>33,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,19%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>25,43%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 44,16</t>
+          <t>-24,97; 42,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 33,49</t>
+          <t>-33,55; 32,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 68,42</t>
+          <t>-15,29; 67,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 110,58</t>
+          <t>-13,02; 66,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 39,77</t>
+          <t>-0,01; 108,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 44,32</t>
+          <t>-16,53; 83,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 43,21</t>
+          <t>-19,24; 36,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 42,28</t>
+          <t>-14,55; 42,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 29,81</t>
+          <t>-15,6; 41,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 29,92</t>
+          <t>-11,66; 50,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 41,39</t>
+          <t>-18,59; 64,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 54,76</t>
+          <t>-14,67; 98,09</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,87; 30,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-16,24; 27,87</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 43,91</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 43,32</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 63,97</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 69,76</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,25</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,31</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-2,07</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 16,74</t>
+          <t>-12,25; 17,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 8,18</t>
+          <t>-16,18; 9,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 10,75</t>
+          <t>-14,58; 12,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-16,29; 9,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-10,99; 5,48</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 9,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 6,35</t>
+          <t>-10,93; 6,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-7,93; 8,31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; 5,7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 13,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-8,29; 9,9</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-10,71; 5,72</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 5,83</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,98; 8,9</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 5,6</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 6,36</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-8,94; 8,28</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,82%</t>
+          <t>-20,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>-13,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-11,83%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-18,43%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-16,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-11,21%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-12,63%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-13,51%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-5,76%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-11,38%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-12,89%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,38; 145,81</t>
+          <t>-60,77; 156,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 85,12</t>
+          <t>-69,09; 103,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 100,31</t>
+          <t>-66,27; 132,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-72,46; 84,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-61,82; 63,42</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 103,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 67,87</t>
+          <t>-60,39; 72,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-45,69; 92,9</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-54,1; 59,76</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-44,61; 126,08</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-44,03; 82,4</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-52,59; 48,63</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-53,68; 49,44</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-51,78; 77,7</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-49,59; 49,32</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-53,33; 55,4</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-46,84; 69,22</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>18,6</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,29</t>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>19,62</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 5,2</t>
+          <t>-3,41; 4,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 1,91</t>
+          <t>-5,3; 2,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,73</t>
+          <t>-3,81; 4,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,93; 20,53</t>
+          <t>-6,51; 1,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,67</t>
+          <t>16,15; 25,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,58</t>
+          <t>-2,69; 7,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 2,89</t>
+          <t>-5,11; 2,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,46; 19,14</t>
+          <t>-3,0; 3,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 3,19</t>
+          <t>-3,66; 2,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 1,76</t>
+          <t>-4,29; 3,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 2,76</t>
+          <t>14,43; 23,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 18,26</t>
+          <t>-1,01; 8,24</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 2,56</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 1,92</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 2,47</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-4,46; 1,29</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 22,77</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 6,45</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>69,44%</t>
+          <t>-10,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>98,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>74,79%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-2,98%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,48%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-6,56%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>86,31%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 23,91</t>
+          <t>-14,15; 22,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 9,34</t>
+          <t>-21,23; 9,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 23,06</t>
+          <t>-15,35; 20,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>43,63; 96,29</t>
+          <t>-25,62; 8,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 11,15</t>
+          <t>70,04; 136,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 15,17</t>
+          <t>-6,38; 19,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 12,21</t>
+          <t>-19,09; 9,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,66; 79,71</t>
+          <t>-11,09; 15,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 13,8</t>
+          <t>-13,41; 11,74</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 7,63</t>
+          <t>-15,73; 13,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 11,95</t>
+          <t>53,42; 103,23</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>47,58; 79,93</t>
+          <t>-2,38; 22,06</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-13,11; 11,2</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,79; 8,36</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-10,14; 10,64</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 5,69</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>66,76; 106,69</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 17,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
